--- a/Goals.xlsx
+++ b/Goals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toolupcom-my.sharepoint.com/personal/solomon_manamel_pcstools_com/Documents/Desktop/Personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="444" documentId="13_ncr:1_{AB593B95-CA86-472D-9472-78DA2E2AD5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45983F0-7316-4628-AC7C-7064BA341CAF}"/>
+  <xr:revisionPtr revIDLastSave="599" documentId="13_ncr:1_{AB593B95-CA86-472D-9472-78DA2E2AD5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F3AE5DC-C7FC-4DF6-A19E-C4899706A2F2}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1800" windowWidth="29040" windowHeight="17520" xr2:uid="{0AD46AC5-6205-4944-BA9B-94CEDC03FC4D}"/>
+    <workbookView xWindow="57480" yWindow="1770" windowWidth="29040" windowHeight="15720" xr2:uid="{0AD46AC5-6205-4944-BA9B-94CEDC03FC4D}"/>
   </bookViews>
   <sheets>
     <sheet name="g" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Funtime Buys'!$B$2:$C$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Recurring!$E$10:$P$10</definedName>
-    <definedName name="end_of_week">Recurring!$F$5</definedName>
-    <definedName name="period_view">Recurring!$F$3</definedName>
-    <definedName name="start_of_week">Recurring!$F$4</definedName>
+    <definedName name="end_of_week">Recurring!$C$5</definedName>
+    <definedName name="period_view">Recurring!$C$3</definedName>
+    <definedName name="start_of_week">Recurring!$C$4</definedName>
+    <definedName name="today_index">Recurring!$C$6</definedName>
+    <definedName name="wishlist_total">'Funtime Buys'!$F$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="202">
   <si>
     <t>Be able to do a handstand</t>
   </si>
@@ -663,6 +665,18 @@
   <si>
     <t>12 Domo Dashboards (at least)</t>
   </si>
+  <si>
+    <t>Today Index:</t>
+  </si>
+  <si>
+    <t>Flipper Zero</t>
+  </si>
+  <si>
+    <t>Rasberry Pi</t>
+  </si>
+  <si>
+    <t>Steam Deck</t>
+  </si>
 </sst>
 </file>
 
@@ -807,11 +821,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -875,9 +890,6 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -885,6 +897,11 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,13 +911,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
       <border>
         <right style="thin">
@@ -948,6 +965,28 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -980,7 +1019,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BD04884-7BD2-4EC0-8601-630D34CD5844}" name="Goals" displayName="Goals" ref="C8:J51" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="C8:J51" xr:uid="{1BD04884-7BD2-4EC0-8601-630D34CD5844}"/>
+  <autoFilter ref="C8:J51" xr:uid="{1BD04884-7BD2-4EC0-8601-630D34CD5844}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Career"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:J51">
     <sortCondition ref="C8:C51"/>
   </sortState>
@@ -995,6 +1040,17 @@
     <tableColumn id="6" xr3:uid="{23E00B78-7670-40D9-92BA-7D2B043D1FDC}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F67A716-A476-4F97-A4BE-083BC55A57BC}" name="wishlist" displayName="wishlist" ref="B2:C18" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:C18" xr:uid="{2F67A716-A476-4F97-A4BE-083BC55A57BC}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6857037D-85CE-4B6D-89D5-32E6C539BE03}" name="Wishlist" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AF2F47ED-9D25-4B5B-86D0-F9374CE88BB6}" name="$"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1317,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231AD6BF-712F-422B-8E5E-F6D85A2D4449}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,6 +2114,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2065,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FE3D08-9412-44A4-B8B4-656674B53BAF}">
   <dimension ref="B1:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,14 +2140,14 @@
   <sheetData>
     <row r="1" spans="2:10" s="6" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="2:10" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -2136,7 +2193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>46081</v>
       </c>
@@ -2156,7 +2213,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>46081</v>
       </c>
@@ -2176,7 +2233,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>46082</v>
       </c>
@@ -2210,7 +2267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>46138</v>
       </c>
@@ -2230,7 +2287,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>46138</v>
       </c>
@@ -2250,7 +2307,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>46138</v>
       </c>
@@ -2270,7 +2327,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
         <v>46138</v>
       </c>
@@ -2290,7 +2347,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C18" s="3">
         <v>46138</v>
       </c>
@@ -2310,7 +2367,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
         <v>46138</v>
       </c>
@@ -2330,7 +2387,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>46138</v>
       </c>
@@ -2350,7 +2407,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
         <v>46138</v>
       </c>
@@ -2370,7 +2427,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
         <v>46138</v>
       </c>
@@ -2390,7 +2447,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C23" s="3">
         <v>46138</v>
       </c>
@@ -2407,7 +2464,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C24" s="3">
         <v>46138</v>
       </c>
@@ -2458,7 +2515,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C27" s="3">
         <v>46173</v>
       </c>
@@ -2475,7 +2532,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C28" s="3">
         <v>46229</v>
       </c>
@@ -2492,7 +2549,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3">
         <v>46229</v>
       </c>
@@ -2509,7 +2566,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>46229</v>
       </c>
@@ -2526,7 +2583,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="3">
         <v>46229</v>
       </c>
@@ -2543,7 +2600,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C32" s="3">
         <v>46229</v>
       </c>
@@ -2560,7 +2617,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C33" s="3">
         <v>46229</v>
       </c>
@@ -2577,7 +2634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3">
         <v>46229</v>
       </c>
@@ -2594,7 +2651,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C35" s="3">
         <v>46387</v>
       </c>
@@ -2611,7 +2668,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C36" s="3">
         <v>46387</v>
       </c>
@@ -2628,7 +2685,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C37" s="3">
         <v>46387</v>
       </c>
@@ -2645,7 +2702,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C38" s="3">
         <v>46387</v>
       </c>
@@ -2662,7 +2719,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C39" s="3">
         <v>46387</v>
       </c>
@@ -2679,7 +2736,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C40" s="3">
         <v>46387</v>
       </c>
@@ -2696,7 +2753,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C41" s="3">
         <v>46387</v>
       </c>
@@ -2713,7 +2770,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C42" s="3">
         <v>46387</v>
       </c>
@@ -2747,7 +2804,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
       <c r="D44" t="s">
         <v>135</v>
@@ -2762,7 +2819,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>134</v>
       </c>
@@ -2776,7 +2833,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>136</v>
       </c>
@@ -2790,7 +2847,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>75</v>
       </c>
@@ -2804,7 +2861,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>82</v>
       </c>
@@ -2818,7 +2875,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>153</v>
       </c>
@@ -2832,7 +2889,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>95</v>
       </c>
@@ -2846,7 +2903,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>172</v>
       </c>
@@ -2879,10 +2936,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DA2AD1-B9FC-471D-A935-E7E28162797C}">
-  <dimension ref="E2:BX87"/>
+  <dimension ref="B2:BX87"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2890,7 +2947,8 @@
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="8" customWidth="1"/>
-    <col min="7" max="8" width="12" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
@@ -2899,9 +2957,10 @@
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:76" x14ac:dyDescent="0.25">
       <c r="I2" t="str" cm="1">
         <f t="array" ref="I2:N2">TRANSPOSE(_xlfn.UNIQUE(Goals[Category]))</f>
         <v>Career</v>
@@ -2922,30 +2981,31 @@
         <v>Relationships</v>
       </c>
     </row>
-    <row r="3" spans="5:76" x14ac:dyDescent="0.25">
-      <c r="E3" s="15" t="s">
+    <row r="3" spans="2:76" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="8">
+      <c r="C3" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="5:76" x14ac:dyDescent="0.25">
-      <c r="E4" s="15" t="s">
+    <row r="4" spans="2:76" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="19">
+      <c r="C4" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),3)</f>
-        <v>46062</v>
-      </c>
-    </row>
-    <row r="5" spans="5:76" x14ac:dyDescent="0.25">
-      <c r="E5" s="15" t="s">
+        <v>46069</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:76" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="19">
+      <c r="C5" s="21">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),3)+period_view</f>
-        <v>46075</v>
+        <v>46082</v>
       </c>
       <c r="U5" t="str" cm="1">
         <f t="array" ref="U5:AB5">TRANSPOSE(_xlfn._xlws.FILTER(Goals[Name], Goals[Goal Type]="Recurring"))</f>
@@ -2973,7 +3033,14 @@
         <v>Practice Malayalam</v>
       </c>
     </row>
-    <row r="6" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:76" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="4">
+        <f ca="1">MATCH(TODAY(),G:G)</f>
+        <v>18</v>
+      </c>
       <c r="U6" t="str" cm="1">
         <f t="array" ref="U6:BK7">TRANSPOSE(_xlfn.SORTBY(Goals[[Category]:[Sub Category]],Goals[Category]))</f>
         <v>Career</v>
@@ -3105,7 +3172,7 @@
         <v>Relationships</v>
       </c>
     </row>
-    <row r="7" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:76" x14ac:dyDescent="0.25">
       <c r="U7" t="str">
         <v>PCS</v>
       </c>
@@ -3236,7 +3303,44 @@
         <v>Family</v>
       </c>
     </row>
-    <row r="10" spans="5:76" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:76" x14ac:dyDescent="0.25">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:76" x14ac:dyDescent="0.25">
+      <c r="I9" s="22">
+        <f ca="1">COUNTIF(I11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J9" s="22">
+        <f ca="1">COUNTIF(J11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K9" s="22">
+        <f ca="1">COUNTIF(K11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <f ca="1">COUNTIF(L11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <f ca="1">COUNTIF(M11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N9" s="22">
+        <f ca="1">COUNTIF(N11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="22">
+        <f ca="1">COUNTIF(O11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
+        <f ca="1">COUNTIF(P11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:76" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="16" t="s">
         <v>139</v>
       </c>
@@ -3275,8 +3379,8 @@
         <v>Practice Malayalam</v>
       </c>
     </row>
-    <row r="11" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E11" s="23" t="s">
+    <row r="11" spans="2:76" ht="15" x14ac:dyDescent="0.25">
+      <c r="E11" s="25" t="s">
         <v>140</v>
       </c>
       <c r="F11" s="8" t="str">
@@ -3288,7 +3392,7 @@
       </c>
       <c r="H11" s="13" t="b">
         <f t="shared" ref="H11:H42" ca="1" si="0">AND(start_of_week&lt;=G11,G11&lt;=end_of_week)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2" t="b">
         <v>0</v>
@@ -3495,8 +3599,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E12" s="23"/>
+    <row r="12" spans="2:76" ht="15" x14ac:dyDescent="0.25">
+      <c r="E12" s="25"/>
       <c r="F12" s="8" t="str">
         <f>TEXT(G12,"ddd")</f>
         <v>Tue</v>
@@ -3506,7 +3610,7 @@
       </c>
       <c r="H12" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="b">
         <v>1</v>
@@ -3523,7 +3627,7 @@
       <c r="M12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="N12" s="20" t="b">
+      <c r="N12" s="19" t="b">
         <v>0</v>
       </c>
       <c r="O12" s="18" t="b">
@@ -3713,8 +3817,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E13" s="23"/>
+    <row r="13" spans="2:76" ht="15" x14ac:dyDescent="0.25">
+      <c r="E13" s="25"/>
       <c r="F13" s="8" t="str">
         <f t="shared" ref="F13:F73" si="1">TEXT(G13,"ddd")</f>
         <v>Wed</v>
@@ -3725,7 +3829,7 @@
       </c>
       <c r="H13" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2" t="b">
         <v>0</v>
@@ -3932,8 +4036,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E14" s="23"/>
+    <row r="14" spans="2:76" ht="15" x14ac:dyDescent="0.25">
+      <c r="E14" s="25"/>
       <c r="F14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -3944,7 +4048,7 @@
       </c>
       <c r="H14" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="b">
         <v>0</v>
@@ -4151,8 +4255,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E15" s="23"/>
+    <row r="15" spans="2:76" ht="15" x14ac:dyDescent="0.25">
+      <c r="E15" s="25"/>
       <c r="F15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -4163,7 +4267,7 @@
       </c>
       <c r="H15" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="b">
         <v>0</v>
@@ -4190,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="17" t="b">
         <v>0</v>
@@ -4370,8 +4474,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E16" s="23"/>
+    <row r="16" spans="2:76" ht="15" x14ac:dyDescent="0.25">
+      <c r="E16" s="25"/>
       <c r="F16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
@@ -4382,7 +4486,7 @@
       </c>
       <c r="H16" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="b">
         <v>0</v>
@@ -4590,7 +4694,7 @@
       </c>
     </row>
     <row r="17" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E17" s="23"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
@@ -4601,7 +4705,7 @@
       </c>
       <c r="H17" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="b">
         <v>0</v>
@@ -4628,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="17" t="b">
         <v>0</v>
@@ -4809,7 +4913,7 @@
       </c>
     </row>
     <row r="18" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="25" t="s">
         <v>141</v>
       </c>
       <c r="F18" s="8" t="str">
@@ -5030,7 +5134,7 @@
       </c>
     </row>
     <row r="19" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E19" s="23"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
@@ -5249,7 +5353,7 @@
       </c>
     </row>
     <row r="20" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E20" s="23"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
@@ -5468,7 +5572,7 @@
       </c>
     </row>
     <row r="21" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E21" s="23"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -5687,7 +5791,7 @@
       </c>
     </row>
     <row r="22" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E22" s="23"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -5906,7 +6010,7 @@
       </c>
     </row>
     <row r="23" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E23" s="23"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
@@ -6125,7 +6229,7 @@
       </c>
     </row>
     <row r="24" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E24" s="23"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
@@ -6344,7 +6448,7 @@
       </c>
     </row>
     <row r="25" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="24" t="s">
         <v>142</v>
       </c>
       <c r="F25" s="8" t="str">
@@ -6357,7 +6461,7 @@
       </c>
       <c r="H25" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="b">
         <v>0</v>
@@ -6565,7 +6669,7 @@
       </c>
     </row>
     <row r="26" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E26" s="22"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
@@ -6576,7 +6680,7 @@
       </c>
       <c r="H26" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="b">
         <v>0</v>
@@ -6784,7 +6888,7 @@
       </c>
     </row>
     <row r="27" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E27" s="22"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
@@ -6795,7 +6899,7 @@
       </c>
       <c r="H27" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="b">
         <v>0</v>
@@ -7003,7 +7107,7 @@
       </c>
     </row>
     <row r="28" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E28" s="22"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -7014,7 +7118,7 @@
       </c>
       <c r="H28" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="b">
         <v>0</v>
@@ -7222,7 +7326,7 @@
       </c>
     </row>
     <row r="29" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E29" s="22"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -7233,7 +7337,7 @@
       </c>
       <c r="H29" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="b">
         <v>0</v>
@@ -7441,7 +7545,7 @@
       </c>
     </row>
     <row r="30" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E30" s="22"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
@@ -7452,7 +7556,7 @@
       </c>
       <c r="H30" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="b">
         <v>0</v>
@@ -7660,7 +7764,7 @@
       </c>
     </row>
     <row r="31" spans="5:76" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="22"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
@@ -7671,7 +7775,7 @@
       </c>
       <c r="H31" s="13" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="9" t="b">
         <v>0</v>
@@ -7879,7 +7983,7 @@
       </c>
     </row>
     <row r="32" spans="5:76" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="24" t="s">
         <v>143</v>
       </c>
       <c r="F32" s="8" t="str">
@@ -8100,7 +8204,7 @@
       </c>
     </row>
     <row r="33" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E33" s="22"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
@@ -8319,7 +8423,7 @@
       </c>
     </row>
     <row r="34" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E34" s="22"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
@@ -8538,7 +8642,7 @@
       </c>
     </row>
     <row r="35" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E35" s="22"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -8757,7 +8861,7 @@
       </c>
     </row>
     <row r="36" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E36" s="22"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -8976,7 +9080,7 @@
       </c>
     </row>
     <row r="37" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
@@ -9195,7 +9299,7 @@
       </c>
     </row>
     <row r="38" spans="5:76" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="22"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
@@ -9414,7 +9518,7 @@
       </c>
     </row>
     <row r="39" spans="5:76" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="24" t="s">
         <v>144</v>
       </c>
       <c r="F39" s="8" t="str">
@@ -9635,7 +9739,7 @@
       </c>
     </row>
     <row r="40" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E40" s="22"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
@@ -9854,7 +9958,7 @@
       </c>
     </row>
     <row r="41" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E41" s="22"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
@@ -10073,7 +10177,7 @@
       </c>
     </row>
     <row r="42" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E42" s="22"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -10292,7 +10396,7 @@
       </c>
     </row>
     <row r="43" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E43" s="22"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -10511,7 +10615,7 @@
       </c>
     </row>
     <row r="44" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E44" s="22"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
@@ -10730,7 +10834,7 @@
       </c>
     </row>
     <row r="45" spans="5:76" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="22"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
@@ -10949,7 +11053,7 @@
       </c>
     </row>
     <row r="46" spans="5:76" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="24" t="s">
         <v>145</v>
       </c>
       <c r="F46" s="8" t="str">
@@ -11170,7 +11274,7 @@
       </c>
     </row>
     <row r="47" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E47" s="22"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
@@ -11389,7 +11493,7 @@
       </c>
     </row>
     <row r="48" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E48" s="22"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
@@ -11608,7 +11712,7 @@
       </c>
     </row>
     <row r="49" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E49" s="22"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -11827,7 +11931,7 @@
       </c>
     </row>
     <row r="50" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E50" s="22"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -12046,7 +12150,7 @@
       </c>
     </row>
     <row r="51" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E51" s="22"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
@@ -12265,7 +12369,7 @@
       </c>
     </row>
     <row r="52" spans="5:76" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="22"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
@@ -12484,7 +12588,7 @@
       </c>
     </row>
     <row r="53" spans="5:76" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="24" t="s">
         <v>146</v>
       </c>
       <c r="F53" s="8" t="str">
@@ -12705,7 +12809,7 @@
       </c>
     </row>
     <row r="54" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E54" s="22"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
@@ -12924,7 +13028,7 @@
       </c>
     </row>
     <row r="55" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E55" s="22"/>
+      <c r="E55" s="24"/>
       <c r="F55" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
@@ -13143,7 +13247,7 @@
       </c>
     </row>
     <row r="56" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E56" s="22"/>
+      <c r="E56" s="24"/>
       <c r="F56" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -13362,7 +13466,7 @@
       </c>
     </row>
     <row r="57" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E57" s="22"/>
+      <c r="E57" s="24"/>
       <c r="F57" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -13581,7 +13685,7 @@
       </c>
     </row>
     <row r="58" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E58" s="22"/>
+      <c r="E58" s="24"/>
       <c r="F58" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
@@ -13800,7 +13904,7 @@
       </c>
     </row>
     <row r="59" spans="5:76" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="22"/>
+      <c r="E59" s="24"/>
       <c r="F59" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
@@ -14019,7 +14123,7 @@
       </c>
     </row>
     <row r="60" spans="5:76" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="24" t="s">
         <v>147</v>
       </c>
       <c r="F60" s="8" t="str">
@@ -14240,7 +14344,7 @@
       </c>
     </row>
     <row r="61" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E61" s="22"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
@@ -14459,7 +14563,7 @@
       </c>
     </row>
     <row r="62" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E62" s="22"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
@@ -14678,7 +14782,7 @@
       </c>
     </row>
     <row r="63" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E63" s="22"/>
+      <c r="E63" s="24"/>
       <c r="F63" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -14897,7 +15001,7 @@
       </c>
     </row>
     <row r="64" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E64" s="22"/>
+      <c r="E64" s="24"/>
       <c r="F64" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -15116,7 +15220,7 @@
       </c>
     </row>
     <row r="65" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E65" s="22"/>
+      <c r="E65" s="24"/>
       <c r="F65" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
@@ -15335,7 +15439,7 @@
       </c>
     </row>
     <row r="66" spans="5:76" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="22"/>
+      <c r="E66" s="24"/>
       <c r="F66" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
@@ -15554,7 +15658,7 @@
       </c>
     </row>
     <row r="67" spans="5:76" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="24" t="s">
         <v>148</v>
       </c>
       <c r="F67" s="8" t="str">
@@ -15775,7 +15879,7 @@
       </c>
     </row>
     <row r="68" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E68" s="22"/>
+      <c r="E68" s="24"/>
       <c r="F68" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Tue</v>
@@ -15994,7 +16098,7 @@
       </c>
     </row>
     <row r="69" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E69" s="22"/>
+      <c r="E69" s="24"/>
       <c r="F69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Wed</v>
@@ -16213,7 +16317,7 @@
       </c>
     </row>
     <row r="70" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E70" s="22"/>
+      <c r="E70" s="24"/>
       <c r="F70" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -16432,7 +16536,7 @@
       </c>
     </row>
     <row r="71" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E71" s="22"/>
+      <c r="E71" s="24"/>
       <c r="F71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -16651,7 +16755,7 @@
       </c>
     </row>
     <row r="72" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E72" s="22"/>
+      <c r="E72" s="24"/>
       <c r="F72" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sat</v>
@@ -16870,7 +16974,7 @@
       </c>
     </row>
     <row r="73" spans="5:76" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="22"/>
+      <c r="E73" s="24"/>
       <c r="F73" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Sun</v>
@@ -17089,7 +17193,7 @@
       </c>
     </row>
     <row r="74" spans="5:76" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="24" t="s">
         <v>162</v>
       </c>
       <c r="F74" s="8" t="str">
@@ -17310,7 +17414,7 @@
       </c>
     </row>
     <row r="75" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E75" s="22"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="8" t="str">
         <f t="shared" si="6"/>
         <v>Tue</v>
@@ -17529,7 +17633,7 @@
       </c>
     </row>
     <row r="76" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E76" s="22"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="8" t="str">
         <f t="shared" si="6"/>
         <v>Wed</v>
@@ -17748,7 +17852,7 @@
       </c>
     </row>
     <row r="77" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E77" s="22"/>
+      <c r="E77" s="24"/>
       <c r="F77" s="8" t="str">
         <f t="shared" si="6"/>
         <v>Thu</v>
@@ -17967,7 +18071,7 @@
       </c>
     </row>
     <row r="78" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E78" s="22"/>
+      <c r="E78" s="24"/>
       <c r="F78" s="8" t="str">
         <f t="shared" si="6"/>
         <v>Fri</v>
@@ -18186,7 +18290,7 @@
       </c>
     </row>
     <row r="79" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E79" s="22"/>
+      <c r="E79" s="24"/>
       <c r="F79" s="8" t="str">
         <f t="shared" si="6"/>
         <v>Sat</v>
@@ -18405,7 +18509,7 @@
       </c>
     </row>
     <row r="80" spans="5:76" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="22"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="12" t="str">
         <f t="shared" si="6"/>
         <v>Sun</v>
@@ -18624,7 +18728,7 @@
       </c>
     </row>
     <row r="81" spans="5:76" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="24" t="s">
         <v>163</v>
       </c>
       <c r="F81" s="8" t="str">
@@ -18845,7 +18949,7 @@
       </c>
     </row>
     <row r="82" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E82" s="22"/>
+      <c r="E82" s="24"/>
       <c r="F82" s="8" t="str">
         <f t="shared" si="6"/>
         <v>Tue</v>
@@ -19064,7 +19168,7 @@
       </c>
     </row>
     <row r="83" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E83" s="22"/>
+      <c r="E83" s="24"/>
       <c r="F83" s="8" t="str">
         <f t="shared" si="6"/>
         <v>Wed</v>
@@ -19283,7 +19387,7 @@
       </c>
     </row>
     <row r="84" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E84" s="22"/>
+      <c r="E84" s="24"/>
       <c r="F84" s="8" t="str">
         <f t="shared" si="6"/>
         <v>Thu</v>
@@ -19502,7 +19606,7 @@
       </c>
     </row>
     <row r="85" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E85" s="22"/>
+      <c r="E85" s="24"/>
       <c r="F85" s="8" t="str">
         <f t="shared" si="6"/>
         <v>Fri</v>
@@ -19721,7 +19825,7 @@
       </c>
     </row>
     <row r="86" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E86" s="22"/>
+      <c r="E86" s="24"/>
       <c r="F86" s="8" t="str">
         <f t="shared" si="6"/>
         <v>Sat</v>
@@ -19940,7 +20044,7 @@
       </c>
     </row>
     <row r="87" spans="5:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="E87" s="22"/>
+      <c r="E87" s="24"/>
       <c r="F87" s="8" t="str">
         <f t="shared" si="6"/>
         <v>Sun</v>
@@ -20175,23 +20279,23 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD10">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:XFD317">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A10:XFD98 A99:C99 E99:XFD99 A100:XFD317">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>ISBLANK(A$10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:BX1048576">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="E10:BX1048576 E1:BX2 E6:BX7 E8:F8 H8:BX8">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$F1="Sun"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:BX317">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(NOT(ISBLANK(E$10)),ISBLANK(F$10))</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND(AND(NOT(ISBLANK(E$10)),ISBLANK(F$10)),NOT(ISBLANK($F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20200,10 +20304,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25754F8B-D665-4990-9101-42924E1D4FC3}">
-  <dimension ref="B1:F15"/>
+  <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20221,9 +20325,9 @@
       <c r="C2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="20">
         <f>SUBTOTAL(9,C:C)</f>
-        <v>6406</v>
+        <v>7306</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -20260,23 +20364,23 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>200</v>
@@ -20284,59 +20388,81 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="C10">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C11">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="C12">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="C13">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="C14">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>3500</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:C11" xr:uid="{25754F8B-D665-4990-9101-42924E1D4FC3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C15">
-      <sortCondition ref="C2:C11"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Goals.xlsx
+++ b/Goals.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toolupcom-my.sharepoint.com/personal/solomon_manamel_pcstools_com/Documents/Desktop/Personal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toolupcom-my.sharepoint.com/personal/solomon_manamel_pcstools_com/Documents/Desktop/P/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="599" documentId="13_ncr:1_{AB593B95-CA86-472D-9472-78DA2E2AD5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F3AE5DC-C7FC-4DF6-A19E-C4899706A2F2}"/>
+  <xr:revisionPtr revIDLastSave="602" documentId="13_ncr:1_{AB593B95-CA86-472D-9472-78DA2E2AD5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F637B48-A5A8-42D5-8C38-AAA971BF7C61}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="1770" windowWidth="29040" windowHeight="15720" xr2:uid="{0AD46AC5-6205-4944-BA9B-94CEDC03FC4D}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="203">
   <si>
     <t>Be able to do a handstand</t>
   </si>
@@ -677,6 +677,9 @@
   <si>
     <t>Steam Deck</t>
   </si>
+  <si>
+    <t>Done</t>
+  </si>
 </sst>
 </file>
 
@@ -963,9 +966,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -985,6 +985,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1018,7 +1021,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BD04884-7BD2-4EC0-8601-630D34CD5844}" name="Goals" displayName="Goals" ref="C8:J51" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BD04884-7BD2-4EC0-8601-630D34CD5844}" name="Goals" displayName="Goals" ref="C8:J51" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="C8:J51" xr:uid="{1BD04884-7BD2-4EC0-8601-630D34CD5844}">
     <filterColumn colId="2">
       <filters>
@@ -1044,10 +1047,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F67A716-A476-4F97-A4BE-083BC55A57BC}" name="wishlist" displayName="wishlist" ref="B2:C18" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F67A716-A476-4F97-A4BE-083BC55A57BC}" name="wishlist" displayName="wishlist" ref="B2:C18" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B2:C18" xr:uid="{2F67A716-A476-4F97-A4BE-083BC55A57BC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6857037D-85CE-4B6D-89D5-32E6C539BE03}" name="Wishlist" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{6857037D-85CE-4B6D-89D5-32E6C539BE03}" name="Wishlist" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{AF2F47ED-9D25-4B5B-86D0-F9374CE88BB6}" name="$"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1374,7 +1377,7 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,6 +1828,9 @@
       </c>
       <c r="E31" t="s">
         <v>155</v>
+      </c>
+      <c r="F31" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3039,7 +3045,7 @@
       </c>
       <c r="C6" s="4">
         <f ca="1">MATCH(TODAY(),G:G)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U6" t="str" cm="1">
         <f t="array" ref="U6:BK7">TRANSPOSE(_xlfn.SORTBY(Goals[[Category]:[Sub Category]],Goals[Category]))</f>
@@ -3309,11 +3315,11 @@
     <row r="9" spans="2:76" x14ac:dyDescent="0.25">
       <c r="I9" s="22">
         <f ca="1">COUNTIF(I11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
-        <v>0.14285714285714285</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="22">
         <f ca="1">COUNTIF(J11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
-        <v>0.14285714285714285</v>
+        <v>0.1</v>
       </c>
       <c r="K9" s="22">
         <f ca="1">COUNTIF(K11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
@@ -3325,7 +3331,7 @@
       </c>
       <c r="M9" s="22">
         <f ca="1">COUNTIF(M11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
-        <v>0.14285714285714285</v>
+        <v>0.1</v>
       </c>
       <c r="N9" s="22">
         <f ca="1">COUNTIF(N11:INDIRECT(_xlfn.CONCAT(CHAR(COLUMN()+64),today_index)),TRUE)/(TODAY()-$G$11)</f>
@@ -20265,17 +20271,17 @@
   </sheetData>
   <autoFilter ref="E10:P10" xr:uid="{68DA2AD1-B9FC-471D-A935-E7E28162797C}"/>
   <mergeCells count="11">
-    <mergeCell ref="E74:E80"/>
-    <mergeCell ref="E81:E87"/>
-    <mergeCell ref="E53:E59"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="E67:E73"/>
     <mergeCell ref="E46:E52"/>
     <mergeCell ref="E11:E17"/>
     <mergeCell ref="E18:E24"/>
     <mergeCell ref="E25:E31"/>
     <mergeCell ref="E32:E38"/>
     <mergeCell ref="E39:E45"/>
+    <mergeCell ref="E74:E80"/>
+    <mergeCell ref="E81:E87"/>
+    <mergeCell ref="E53:E59"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="E67:E73"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD10">
